--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>46.44753909412255</v>
+        <v>46.98988137604049</v>
       </c>
       <c r="R2">
-        <v>46.44753909412255</v>
+        <v>187.959525504162</v>
       </c>
       <c r="S2">
-        <v>0.001865746507123816</v>
+        <v>0.001743129889614229</v>
       </c>
       <c r="T2">
-        <v>0.001865746507123816</v>
+        <v>0.0009345531170293381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>1721.761972494793</v>
+        <v>1860.688372128908</v>
       </c>
       <c r="R3">
-        <v>1721.761972494793</v>
+        <v>11164.13023277345</v>
       </c>
       <c r="S3">
-        <v>0.06916128279199323</v>
+        <v>0.06902382857193846</v>
       </c>
       <c r="T3">
-        <v>0.06916128279199323</v>
+        <v>0.05550914581197358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>66.36660923831737</v>
+        <v>2.902147961187333</v>
       </c>
       <c r="R4">
-        <v>66.36660923831737</v>
+        <v>17.412887767124</v>
       </c>
       <c r="S4">
-        <v>0.002665873624114357</v>
+        <v>0.0001076576638860821</v>
       </c>
       <c r="T4">
-        <v>0.002665873624114357</v>
+        <v>8.65785785295964E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>1113.816172073354</v>
+        <v>83.36596061126718</v>
       </c>
       <c r="R5">
-        <v>1113.816172073354</v>
+        <v>500.1957636676031</v>
       </c>
       <c r="S5">
-        <v>0.04474076933145506</v>
+        <v>0.0030925316996437</v>
       </c>
       <c r="T5">
-        <v>0.04474076933145506</v>
+        <v>0.002487022186327437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6542892654842</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>11.6542892654842</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.02963886453545362</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.02963886453545362</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>11.62382532777886</v>
+        <v>1162.460161172933</v>
       </c>
       <c r="R6">
-        <v>11.62382532777886</v>
+        <v>4649.840644691733</v>
       </c>
       <c r="S6">
-        <v>0.0004669162656986713</v>
+        <v>0.04312245515604785</v>
       </c>
       <c r="T6">
-        <v>0.0004669162656986713</v>
+        <v>0.02311946179120432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H7">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I7">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J7">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>430.8831170524587</v>
+        <v>12.321191022617</v>
       </c>
       <c r="R7">
-        <v>430.8831170524587</v>
+        <v>73.927146135702</v>
       </c>
       <c r="S7">
-        <v>0.01730810041389199</v>
+        <v>0.0004570651322844423</v>
       </c>
       <c r="T7">
-        <v>0.01730810041389199</v>
+        <v>0.0003675729903493178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>16.60871358157213</v>
+        <v>487.8900775061787</v>
       </c>
       <c r="R8">
-        <v>16.60871358157213</v>
+        <v>4391.010697555608</v>
       </c>
       <c r="S8">
-        <v>0.0006671537385402459</v>
+        <v>0.01809870023168134</v>
       </c>
       <c r="T8">
-        <v>0.0006671537385402459</v>
+        <v>0.02183253401657952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>278.7403785849706</v>
+        <v>0.7609706251337778</v>
       </c>
       <c r="R9">
-        <v>278.7403785849706</v>
+        <v>6.848735626204</v>
       </c>
       <c r="S9">
-        <v>0.01119669411732272</v>
+        <v>2.822885699952974E-05</v>
       </c>
       <c r="T9">
-        <v>0.01119669411732272</v>
+        <v>3.405258238448308E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.734883387419</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>124.734883387419</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.3172222884937735</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.3172222884937735</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>124.4088304097869</v>
+        <v>21.85934280734589</v>
       </c>
       <c r="R10">
-        <v>124.4088304097869</v>
+        <v>196.734085266113</v>
       </c>
       <c r="S10">
-        <v>0.004997365744653428</v>
+        <v>0.0008108910407728117</v>
       </c>
       <c r="T10">
-        <v>0.004997365744653428</v>
+        <v>0.0009781810850937179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.734883387419</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>124.734883387419</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.3172222884937735</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.3172222884937735</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>4611.705968061285</v>
+        <v>304.8080412753905</v>
       </c>
       <c r="R11">
-        <v>4611.705968061285</v>
+        <v>1828.848247652343</v>
       </c>
       <c r="S11">
-        <v>0.1852471512937738</v>
+        <v>0.01130711531467738</v>
       </c>
       <c r="T11">
-        <v>0.1852471512937738</v>
+        <v>0.009093212093575402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H12">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I12">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J12">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>177.7616725155457</v>
+        <v>128.943977298152</v>
       </c>
       <c r="R12">
-        <v>177.7616725155457</v>
+        <v>773.663863788912</v>
       </c>
       <c r="S12">
-        <v>0.007140490671083473</v>
+        <v>0.00478328725955781</v>
       </c>
       <c r="T12">
-        <v>0.007140490671083473</v>
+        <v>0.00384673228716402</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H13">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I13">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J13">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9174069079012</v>
+        <v>39.565288</v>
       </c>
       <c r="N13">
-        <v>23.9174069079012</v>
+        <v>118.695864</v>
       </c>
       <c r="O13">
-        <v>0.3777706836214788</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P13">
-        <v>0.3777706836214788</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q13">
-        <v>2983.334961586506</v>
+        <v>5105.877099256939</v>
       </c>
       <c r="R13">
-        <v>2983.334961586506</v>
+        <v>45952.89389331245</v>
       </c>
       <c r="S13">
-        <v>0.1198372807842628</v>
+        <v>0.1894068834349018</v>
       </c>
       <c r="T13">
-        <v>0.1198372807842628</v>
+        <v>0.2284822762204869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>158.541844920009</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>158.541844920009</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.4031992134176544</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.4031992134176544</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.997386032128483</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N14">
-        <v>0.997386032128483</v>
+        <v>0.185132</v>
       </c>
       <c r="O14">
-        <v>0.01575351394248427</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P14">
-        <v>0.01575351394248427</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q14">
-        <v>158.1274216310971</v>
+        <v>7.963725165180444</v>
       </c>
       <c r="R14">
-        <v>158.1274216310971</v>
+        <v>71.673526486624</v>
       </c>
       <c r="S14">
-        <v>0.00635180443017371</v>
+        <v>0.0002954212047697824</v>
       </c>
       <c r="T14">
-        <v>0.00635180443017371</v>
+        <v>0.0003563677733644635</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>158.541844920009</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>158.541844920009</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.4031992134176544</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.4031992134176544</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.9720630093316</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N15">
-        <v>36.9720630093316</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O15">
-        <v>0.5839663794538508</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P15">
-        <v>0.5839663794538508</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q15">
-        <v>5861.619079998251</v>
+        <v>228.7628361194143</v>
       </c>
       <c r="R15">
-        <v>5861.619079998251</v>
+        <v>2058.865525074728</v>
       </c>
       <c r="S15">
-        <v>0.2354547848581481</v>
+        <v>0.008486153307805467</v>
       </c>
       <c r="T15">
-        <v>0.2354547848581481</v>
+        <v>0.01023688046052354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>158.541844920009</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>158.541844920009</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.4031992134176544</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.4031992134176544</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4251159554415</v>
+        <v>24.7183095</v>
       </c>
       <c r="N16">
-        <v>1.4251159554415</v>
+        <v>49.436619</v>
       </c>
       <c r="O16">
-        <v>0.02250942298218628</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P16">
-        <v>0.02250942298218628</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q16">
-        <v>225.9405128006368</v>
+        <v>3189.883273651268</v>
       </c>
       <c r="R16">
-        <v>225.9405128006368</v>
+        <v>19139.29964190761</v>
       </c>
       <c r="S16">
-        <v>0.009075781640902784</v>
+        <v>0.1183314517051999</v>
       </c>
       <c r="T16">
-        <v>0.009075781640902784</v>
+        <v>0.0951624669732803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H17">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I17">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J17">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.9174069079012</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N17">
-        <v>23.9174069079012</v>
+        <v>1.998366</v>
       </c>
       <c r="O17">
-        <v>0.3777706836214788</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P17">
-        <v>0.3777706836214788</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q17">
-        <v>3791.909816881224</v>
+        <v>158.513922565783</v>
       </c>
       <c r="R17">
-        <v>3791.909816881224</v>
+        <v>951.0835353946978</v>
       </c>
       <c r="S17">
-        <v>0.1523168424884298</v>
+        <v>0.005880209701599686</v>
       </c>
       <c r="T17">
-        <v>0.1523168424884298</v>
+        <v>0.004728880221283151</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.9355676810463</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H18">
-        <v>38.9355676810463</v>
+        <v>475.930603</v>
       </c>
       <c r="I18">
-        <v>0.09901985353386301</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J18">
-        <v>0.09901985353386301</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.997386032128483</v>
+        <v>39.565288</v>
       </c>
       <c r="N18">
-        <v>0.997386032128483</v>
+        <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.01575351394248427</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P18">
-        <v>0.01575351394248427</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q18">
-        <v>38.83379135806877</v>
+        <v>6276.777125236221</v>
       </c>
       <c r="R18">
-        <v>38.83379135806877</v>
+        <v>56490.99412712599</v>
       </c>
       <c r="S18">
-        <v>0.001559910643228461</v>
+        <v>0.2328424226034527</v>
       </c>
       <c r="T18">
-        <v>0.001559910643228461</v>
+        <v>0.2808787397392244</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.9355676810463</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H19">
-        <v>38.9355676810463</v>
+        <v>475.930603</v>
       </c>
       <c r="I19">
-        <v>0.09901985353386301</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J19">
-        <v>0.09901985353386301</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>36.9720630093316</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N19">
-        <v>36.9720630093316</v>
+        <v>0.185132</v>
       </c>
       <c r="O19">
-        <v>0.5839663794538508</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P19">
-        <v>0.5839663794538508</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q19">
-        <v>1439.528261607739</v>
+        <v>9.78999826606622</v>
       </c>
       <c r="R19">
-        <v>1439.528261607739</v>
+        <v>88.10998439459598</v>
       </c>
       <c r="S19">
-        <v>0.05782426536222057</v>
+        <v>0.0003631683693833039</v>
       </c>
       <c r="T19">
-        <v>0.05782426536222057</v>
+        <v>0.0004380914472757205</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.9355676810463</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>38.9355676810463</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.09901985353386301</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.09901985353386301</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.4251159554415</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N20">
-        <v>1.4251159554415</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O20">
-        <v>0.02250942298218628</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P20">
-        <v>0.02250942298218628</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q20">
-        <v>55.48769873643149</v>
+        <v>281.2236387490541</v>
       </c>
       <c r="R20">
-        <v>55.48769873643149</v>
+        <v>2531.012748741487</v>
       </c>
       <c r="S20">
-        <v>0.002228879766827856</v>
+        <v>0.01043223170636693</v>
       </c>
       <c r="T20">
-        <v>0.002228879766827856</v>
+        <v>0.01258444256673213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.9355676810463</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>38.9355676810463</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.09901985353386301</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.09901985353386301</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9174069079012</v>
+        <v>24.7183095</v>
       </c>
       <c r="N21">
-        <v>23.9174069079012</v>
+        <v>49.436619</v>
       </c>
       <c r="O21">
-        <v>0.3777706836214788</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P21">
-        <v>0.3777706836214788</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q21">
-        <v>931.2378154177114</v>
+        <v>3921.399981825209</v>
       </c>
       <c r="R21">
-        <v>931.2378154177114</v>
+        <v>23528.39989095126</v>
       </c>
       <c r="S21">
-        <v>0.03740679776158613</v>
+        <v>0.1454676904321267</v>
       </c>
       <c r="T21">
-        <v>0.03740679776158613</v>
+        <v>0.116985502053283</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.7738529438299</v>
+        <v>41.810285</v>
       </c>
       <c r="H22">
-        <v>12.7738529438299</v>
+        <v>125.430855</v>
       </c>
       <c r="I22">
-        <v>0.03248610776456904</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J22">
-        <v>0.03248610776456904</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N22">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O22">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P22">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q22">
-        <v>12.74046250263924</v>
+        <v>41.776125997155</v>
       </c>
       <c r="R22">
-        <v>12.74046250263924</v>
+        <v>250.65675598293</v>
       </c>
       <c r="S22">
-        <v>0.000511770351606185</v>
+        <v>0.001549721169014516</v>
       </c>
       <c r="T22">
-        <v>0.000511770351606185</v>
+        <v>0.001246289870013118</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.7738529438299</v>
+        <v>41.810285</v>
       </c>
       <c r="H23">
-        <v>12.7738529438299</v>
+        <v>125.430855</v>
       </c>
       <c r="I23">
-        <v>0.03248610776456904</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J23">
-        <v>0.03248610776456904</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N23">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O23">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P23">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q23">
-        <v>472.275695911215</v>
+        <v>1654.23596738708</v>
       </c>
       <c r="R23">
-        <v>472.275695911215</v>
+        <v>14888.12370648372</v>
       </c>
       <c r="S23">
-        <v>0.01897079473382301</v>
+        <v>0.06136529982171035</v>
       </c>
       <c r="T23">
-        <v>0.01897079473382301</v>
+        <v>0.07402520505035352</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.7738529438299</v>
+        <v>41.810285</v>
       </c>
       <c r="H24">
-        <v>12.7738529438299</v>
+        <v>125.430855</v>
       </c>
       <c r="I24">
-        <v>0.03248610776456904</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J24">
-        <v>0.03248610776456904</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N24">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O24">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P24">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q24">
-        <v>18.20422164271536</v>
+        <v>2.580140560873333</v>
       </c>
       <c r="R24">
-        <v>18.20422164271536</v>
+        <v>23.22126504786</v>
       </c>
       <c r="S24">
-        <v>0.0007312435407175707</v>
+        <v>9.571252361912863E-05</v>
       </c>
       <c r="T24">
-        <v>0.0007312435407175707</v>
+        <v>0.0001154583976184886</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>41.810285</v>
+      </c>
+      <c r="H25">
+        <v>125.430855</v>
+      </c>
+      <c r="I25">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J25">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>74.11610270942168</v>
+      </c>
+      <c r="R25">
+        <v>667.0449243847952</v>
+      </c>
+      <c r="S25">
+        <v>0.002749400299622492</v>
+      </c>
+      <c r="T25">
+        <v>0.003316612507987023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>41.810285</v>
+      </c>
+      <c r="H26">
+        <v>125.430855</v>
+      </c>
+      <c r="I26">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J26">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>1033.479564913207</v>
+      </c>
+      <c r="R26">
+        <v>6200.877389479246</v>
+      </c>
+      <c r="S26">
+        <v>0.03833780948475166</v>
+      </c>
+      <c r="T26">
+        <v>0.03083136796132343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>12.7738529438299</v>
-      </c>
-      <c r="H25">
-        <v>12.7738529438299</v>
-      </c>
-      <c r="I25">
-        <v>0.03248610776456904</v>
-      </c>
-      <c r="J25">
-        <v>0.03248610776456904</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q25">
-        <v>305.5174386392713</v>
-      </c>
-      <c r="R25">
-        <v>305.5174386392713</v>
-      </c>
-      <c r="S25">
-        <v>0.01227229913842228</v>
-      </c>
-      <c r="T25">
-        <v>0.01227229913842228</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12.780919</v>
+      </c>
+      <c r="H27">
+        <v>25.561838</v>
+      </c>
+      <c r="I27">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J27">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.998366</v>
+      </c>
+      <c r="O27">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P27">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q27">
+        <v>12.770476989177</v>
+      </c>
+      <c r="R27">
+        <v>51.081907956708</v>
+      </c>
+      <c r="S27">
+        <v>0.0004737317799617927</v>
+      </c>
+      <c r="T27">
+        <v>0.0002539842350458058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12.780919</v>
+      </c>
+      <c r="H28">
+        <v>25.561838</v>
+      </c>
+      <c r="I28">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J28">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>39.565288</v>
+      </c>
+      <c r="N28">
+        <v>118.695864</v>
+      </c>
+      <c r="O28">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P28">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q28">
+        <v>505.6807411396721</v>
+      </c>
+      <c r="R28">
+        <v>3034.084446838032</v>
+      </c>
+      <c r="S28">
+        <v>0.01875866013427066</v>
+      </c>
+      <c r="T28">
+        <v>0.01508576417990548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12.780919</v>
+      </c>
+      <c r="H29">
+        <v>25.561838</v>
+      </c>
+      <c r="I29">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J29">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.185132</v>
+      </c>
+      <c r="O29">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P29">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q29">
+        <v>0.7887190321026667</v>
+      </c>
+      <c r="R29">
+        <v>4.732314192616</v>
+      </c>
+      <c r="S29">
+        <v>2.925820791849828E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.352952832589232E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12.780919</v>
+      </c>
+      <c r="H30">
+        <v>25.561838</v>
+      </c>
+      <c r="I30">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J30">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N30">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P30">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q30">
+        <v>22.65643262955034</v>
+      </c>
+      <c r="R30">
+        <v>135.938595777302</v>
+      </c>
+      <c r="S30">
+        <v>0.0008404597703184945</v>
+      </c>
+      <c r="T30">
+        <v>0.0006758999740369942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>12.780919</v>
+      </c>
+      <c r="H31">
+        <v>25.561838</v>
+      </c>
+      <c r="I31">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J31">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>24.7183095</v>
+      </c>
+      <c r="N31">
+        <v>49.436619</v>
+      </c>
+      <c r="O31">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P31">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q31">
+        <v>315.9227115364305</v>
+      </c>
+      <c r="R31">
+        <v>1263.690846145722</v>
+      </c>
+      <c r="S31">
+        <v>0.01171942352610232</v>
+      </c>
+      <c r="T31">
+        <v>0.006283194299725852</v>
       </c>
     </row>
   </sheetData>
